--- a/outputs/OEV/graf_abs_pres_oev.xlsx
+++ b/outputs/OEV/graf_abs_pres_oev.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -369,6 +369,26 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>absence</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>présence</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
